--- a/Reports/RSO/Prokopevsk/Hot_MKD/Hot_MKD.xlsx
+++ b/Reports/RSO/Prokopevsk/Hot_MKD/Hot_MKD.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>t1</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>"=B$R*G$R"</t>
+  </si>
+  <si>
+    <t>$FS0_t1['U:id_month']</t>
+  </si>
+  <si>
+    <t>$FSM_t1['U']</t>
   </si>
 </sst>
 </file>
@@ -676,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -989,7 +995,7 @@
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
       <c r="U6" s="21" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>5</v>
@@ -1066,7 +1072,7 @@
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
       <c r="U7" s="24" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>5</v>

--- a/Reports/RSO/Prokopevsk/Hot_MKD/Hot_MKD.xlsx
+++ b/Reports/RSO/Prokopevsk/Hot_MKD/Hot_MKD.xlsx
@@ -693,7 +693,8 @@
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="11" width="14.7109375" customWidth="1"/>
     <col min="12" max="14" width="9.42578125" customWidth="1"/>
-    <col min="15" max="21" width="14.7109375" customWidth="1"/>
+    <col min="15" max="20" width="14.7109375" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
     <col min="23" max="23" width="10.42578125" customWidth="1"/>
     <col min="24" max="24" width="11.42578125" customWidth="1"/>
     <col min="25" max="25" width="10.28515625" customWidth="1"/>
